--- a/AirportMap/data/CS4460 Data Sheets.xlsx
+++ b/AirportMap/data/CS4460 Data Sheets.xlsx
@@ -1,22 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="555" windowWidth="16935" windowHeight="7365"/>
+    <workbookView xWindow="280" yWindow="560" windowWidth="19340" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Airport Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="124">
   <si>
-    <t>Hartsfield–Jackson Atlanta International Airport</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>wn</t>
+  </si>
+  <si>
+    <t>ua</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>pas_2012</t>
+  </si>
+  <si>
+    <t>pas_2011</t>
+  </si>
+  <si>
+    <t>pas_2010</t>
+  </si>
+  <si>
+    <t>pas_2009</t>
+  </si>
+  <si>
+    <t>pas_2008</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>longi</t>
+  </si>
+  <si>
+    <t>Hartsfield Jackson Atlanta International Airport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ATL</t>
@@ -317,92 +392,26 @@
   </si>
   <si>
     <t>rank</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>wn</t>
-  </si>
-  <si>
-    <t>ua</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>pas_2012</t>
-  </si>
-  <si>
-    <t>pas_2011</t>
-  </si>
-  <si>
-    <t>pas_2010</t>
-  </si>
-  <si>
-    <t>pas_2009</t>
-  </si>
-  <si>
-    <t>pas_2008</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>wifi</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>pet</t>
-  </si>
-  <si>
-    <t>trans</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>longi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,7 +449,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -733,111 +742,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="24" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="Y33" sqref="Y33"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" customWidth="1"/>
+    <col min="21" max="21" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="W1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="X1" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1">
@@ -845,31 +855,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>45798809</v>
@@ -893,7 +903,7 @@
         <v>33.636699999999998</v>
       </c>
       <c r="R2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -920,31 +930,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>32171743</v>
@@ -968,7 +978,7 @@
         <v>41.979332999999997</v>
       </c>
       <c r="R3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
@@ -995,31 +1005,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>31326268</v>
@@ -1043,19 +1053,19 @@
         <v>33.942495000000001</v>
       </c>
       <c r="R4" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U4" t="b">
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W4">
         <v>103</v>
@@ -1069,31 +1079,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K5">
         <v>30227003</v>
@@ -1117,13 +1127,13 @@
         <v>25.795361</v>
       </c>
       <c r="R5" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U5" t="b">
         <v>1</v>
@@ -1144,31 +1154,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>28022877</v>
@@ -1192,7 +1202,7 @@
         <v>32.896827999999999</v>
       </c>
       <c r="R6" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
@@ -1204,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W6">
         <v>369</v>
@@ -1219,31 +1229,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
       <c r="J7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>25799832</v>
@@ -1267,19 +1277,19 @@
         <v>39.861666999999997</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U7" t="b">
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W7">
         <v>277</v>
@@ -1294,31 +1304,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>24520943</v>
@@ -1342,10 +1352,10 @@
         <v>40.639750999999997</v>
       </c>
       <c r="R8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T8" t="b">
         <v>1</v>
@@ -1368,31 +1378,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>21284224</v>
@@ -1416,10 +1426,10 @@
         <v>37.619104999999998</v>
       </c>
       <c r="R9" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T9" t="b">
         <v>1</v>
@@ -1443,31 +1453,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>20032426</v>
@@ -1491,19 +1501,19 @@
         <v>35.213740999999999</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U10" t="b">
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W10">
         <v>565</v>
@@ -1518,31 +1528,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K11">
         <v>19941173</v>
@@ -1566,10 +1576,10 @@
         <v>36.080055999999999</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T11" t="b">
         <v>1</v>
@@ -1578,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W11">
         <v>147</v>
@@ -1593,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>19556189</v>
@@ -1641,10 +1651,10 @@
         <v>33.434277999999999</v>
       </c>
       <c r="R12" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T12" t="b">
         <v>1</v>
@@ -1667,31 +1677,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>19038958</v>
@@ -1715,19 +1725,19 @@
         <v>29.984444</v>
       </c>
       <c r="R13" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U13" t="b">
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W13">
         <v>387</v>
@@ -1742,31 +1752,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>17159425</v>
@@ -1790,19 +1800,19 @@
         <v>28.429389</v>
       </c>
       <c r="R14" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U14" t="b">
         <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W14">
         <v>559</v>
@@ -1817,31 +1827,31 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>17035098</v>
@@ -1865,13 +1875,13 @@
         <v>40.692480000000003</v>
       </c>
       <c r="R15" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="S15" t="b">
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U15" t="b">
         <v>1</v>
@@ -1892,31 +1902,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>16121123</v>
@@ -1940,10 +1950,10 @@
         <v>47.449888999999999</v>
       </c>
       <c r="R16" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T16" t="b">
         <v>1</v>
@@ -1966,31 +1976,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J17" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K17">
         <v>15943751</v>
@@ -2014,10 +2024,10 @@
         <v>44.881971999999998</v>
       </c>
       <c r="R17" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T17" t="b">
         <v>1</v>
@@ -2041,31 +2051,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K18">
         <v>15599877</v>
@@ -2089,7 +2099,7 @@
         <v>42.212417000000002</v>
       </c>
       <c r="R18" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S18" t="b">
         <v>1</v>
@@ -2101,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W18">
         <v>534</v>
@@ -2116,31 +2126,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J19" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K19">
         <v>14587631</v>
@@ -2164,7 +2174,7 @@
         <v>39.872248999999996</v>
       </c>
       <c r="R19" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S19" t="b">
         <v>1</v>
@@ -2191,31 +2201,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K20">
         <v>14293675</v>
@@ -2239,7 +2249,7 @@
         <v>42.362971999999999</v>
       </c>
       <c r="R20" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S20" t="b">
         <v>1</v>
@@ -2251,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W20">
         <v>686</v>
@@ -2266,31 +2276,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K21">
         <v>12818717</v>
@@ -2314,19 +2324,19 @@
         <v>40.777250000000002</v>
       </c>
       <c r="R21" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="S21" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T21" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U21" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="V21" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W21">
         <v>655</v>
@@ -2341,31 +2351,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I22" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K22">
         <v>11445101</v>
@@ -2389,16 +2399,16 @@
         <v>26.072596000000001</v>
       </c>
       <c r="R22" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U22" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="V22" t="b">
         <v>1</v>
@@ -2416,31 +2426,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J23" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K23">
         <v>11183965</v>
@@ -2464,10 +2474,10 @@
         <v>39.175361000000002</v>
       </c>
       <c r="R23" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="S23" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T23" t="b">
         <v>1</v>
@@ -2491,31 +2501,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I24" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J24" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K24">
         <v>10785683</v>
@@ -2539,19 +2549,19 @@
         <v>38.947443999999997</v>
       </c>
       <c r="R24" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U24" t="b">
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="W24">
         <v>605</v>
@@ -2565,31 +2575,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G25" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J25" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="K25">
         <v>9579836</v>
@@ -2613,10 +2623,10 @@
         <v>40.788387999999998</v>
       </c>
       <c r="R25" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S25" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T25" t="b">
         <v>1</v>
@@ -2639,31 +2649,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J26" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="K26">
         <v>9462206</v>
@@ -2687,13 +2697,13 @@
         <v>38.851916000000003</v>
       </c>
       <c r="R26" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="S26" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="T26" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="U26" t="b">
         <v>1</v>
@@ -2709,7 +2719,12 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>